--- a/meta/3-a-1.xlsx
+++ b/meta/3-a-1.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\407\ВЕНЕРА\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Метаданные  ЦУР в Excel для Платформы\Метаданные на русском\Глобальные\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F36A63-F575-4FE6-9730-42AA23361378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28665" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Инструкция" sheetId="1" r:id="rId1"/>
@@ -157,25 +156,10 @@
     <t>Описание методов, используемых для сбора данных. Это описание должно включать, когда это применимо, используемый образец выборки, вопросы, используемые для сбора данных, тип интервью, даты / продолжительность полевых работ, размер выборки, частоту ответов и любые изменения источника данных с течением времени, детали знаменателя (если из другого источника) и любую другую соответствующую информацию, связанную с происхождением источника или индикатора.                                                  Описание механизма сбора данных: например, частота и периоды, когда данные собираются, а также частота и периоды, когда данные передаются в НСУ или национальную платформу отчетности.</t>
   </si>
   <si>
-    <t>Керималиева Н.К</t>
-  </si>
-  <si>
-    <t>nazira.kerimaliena@gmail.com</t>
-  </si>
-  <si>
-    <t>(0312) 32 46 91</t>
-  </si>
-  <si>
-    <t>www.stat.kg</t>
-  </si>
-  <si>
     <t xml:space="preserve"> НСК КР</t>
   </si>
   <si>
     <t>Цель 3: Обеспечение здорового образа жизни и содействие благополучию для всех в любом возрасте</t>
-  </si>
-  <si>
-    <t>3.a.1 Распространенность употребления табака лицами в возрасте от 15 лет</t>
   </si>
   <si>
     <t>3.а Активизировать осуществление конвенции ВОЗ по борьбе против табака</t>
@@ -208,13 +192,28 @@
   </si>
   <si>
     <t>Расчет индикатора 3.a.1.1. «Распространенность употребления табака лицами в возрасте от 15 лет» произведен на данных интегрированного выборочного обследования бюджетов домашних хозяйств и рабочей силы. Индикатор переведен в разряд национальных индикаторов в связи с тем, что стандартизация по возрасту производится Всемирной организацией здравоохранения, исходя из половозрастной численности населения стран региона.</t>
+  </si>
+  <si>
+    <t>www.stat.gov.kg</t>
+  </si>
+  <si>
+    <t>(0312) 32 46 55</t>
+  </si>
+  <si>
+    <t>Калымбетова Ы.И.</t>
+  </si>
+  <si>
+    <t>3.a.1 Стандартизированная по возрасту распространенность употребления табака лицами в возрасте 15 лет и старше</t>
+  </si>
+  <si>
+    <t>yryskan.kalymbetova@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -242,33 +241,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -285,20 +260,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -308,6 +269,30 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -352,9 +337,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -383,58 +368,61 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -716,7 +704,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
@@ -934,11 +922,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -947,215 +935,215 @@
     <col min="2" max="2" width="87.140625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
+      <c r="B1" s="20"/>
     </row>
     <row r="2" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="20"/>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="20"/>
+    </row>
+    <row r="12" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="189" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="16"/>
+    </row>
+    <row r="16" spans="1:2" s="8" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="63" x14ac:dyDescent="0.25">
+      <c r="A17" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="23"/>
+    </row>
+    <row r="19" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="63" x14ac:dyDescent="0.25">
+      <c r="A20" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="14" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="10" t="s">
+    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="12"/>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="24"/>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="14"/>
+    </row>
+    <row r="24" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="15" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="4"/>
-    </row>
-    <row r="12" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="189" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="26" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="26"/>
-    </row>
-    <row r="16" spans="1:2" s="8" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="63" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="24"/>
-    </row>
-    <row r="19" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="63" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="20"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="16"/>
-    </row>
-    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="23"/>
-    </row>
-    <row r="24" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="25" t="s">
+    <row r="25" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="18"/>
+    </row>
+    <row r="26" spans="1:2" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="21"/>
+      <c r="B26" s="15" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="17"/>
-    </row>
-    <row r="26" spans="1:2" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="25" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
+    <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="4"/>
+      <c r="B27" s="20"/>
     </row>
     <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="22"/>
+      <c r="A28" s="21"/>
+      <c r="B28" s="13"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="18"/>
+      <c r="B29" s="11"/>
     </row>
     <row r="65" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F65" s="15"/>
+      <c r="F65" s="10"/>
       <c r="K65" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="B10" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B10" r:id="rId1"/>
+    <hyperlink ref="B8" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
